--- a/assets/excel/club.xlsx
+++ b/assets/excel/club.xlsx
@@ -15,33 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Inspection Area</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>Arrival Time</t>
-  </si>
-  <si>
-    <t>Arrival Km</t>
-  </si>
-  <si>
-    <t>Post Of Department</t>
-  </si>
-  <si>
-    <t>Departure Km.</t>
-  </si>
-  <si>
-    <t>Other Fee</t>
-  </si>
-  <si>
-    <t>Result</t>
+    <t>Group No</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Club Id</t>
+  </si>
+  <si>
+    <t>Club Member Name</t>
+  </si>
+  <si>
+    <t>Sponsor No.</t>
+  </si>
+  <si>
+    <t>Sponsor Level</t>
+  </si>
+  <si>
+    <t>Joining Fee</t>
+  </si>
+  <si>
+    <t>Banking ID</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Grand Total Revenue</t>
   </si>
   <si>
     <t>Batch No.</t>
@@ -50,151 +56,154 @@
     <t>Added On</t>
   </si>
   <si>
+    <t>BHAGAT SINGH</t>
+  </si>
+  <si>
+    <t>CLUB ID</t>
+  </si>
+  <si>
+    <t>MOHAN</t>
+  </si>
+  <si>
     <t>RANCHI</t>
   </si>
   <si>
-    <t>45:45</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>DIR1234</t>
   </si>
   <si>
     <t>14-04-2022</t>
   </si>
   <si>
-    <t>RAJESH</t>
-  </si>
-  <si>
-    <t>45:58</t>
-  </si>
-  <si>
-    <t>new_inspection_area</t>
-  </si>
-  <si>
-    <t>rgfssdf</t>
-  </si>
-  <si>
-    <t>sdfsdfsdfs</t>
-  </si>
-  <si>
-    <t>sdfs</t>
-  </si>
-  <si>
-    <t>dfsdf</t>
-  </si>
-  <si>
-    <t>sfsd</t>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>sdfsdfsd</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
   </si>
   <si>
     <t>fsdf</t>
   </si>
   <si>
-    <t>sdfsdf</t>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>fsdfsd</t>
   </si>
   <si>
     <t>19-04-2022</t>
   </si>
   <si>
-    <t>dgdgdf</t>
+    <t>dfgdf</t>
+  </si>
+  <si>
+    <t>dfgdfg</t>
+  </si>
+  <si>
+    <t>dfgdg</t>
+  </si>
+  <si>
+    <t>dfgtg</t>
+  </si>
+  <si>
+    <t>dgftgd</t>
+  </si>
+  <si>
+    <t>gdfgdf</t>
+  </si>
+  <si>
+    <t>gdfgdfg</t>
   </si>
   <si>
     <t>dgfdfg</t>
   </si>
   <si>
-    <t>dfgtgdfgd</t>
-  </si>
-  <si>
-    <t>dgddfgdfgfdf</t>
-  </si>
-  <si>
-    <t>dgdfg</t>
-  </si>
-  <si>
-    <t>dgfdfgdfg</t>
+    <t>dgfdgdf</t>
   </si>
   <si>
     <t>20-04-2022</t>
   </si>
   <si>
-    <t>fdghdhfgh</t>
-  </si>
-  <si>
-    <t>fghdfgh</t>
+    <t>fdghdgfh</t>
+  </si>
+  <si>
+    <t>ghfghf</t>
+  </si>
+  <si>
+    <t>ghfhgf</t>
+  </si>
+  <si>
+    <t>gfdhdgfh</t>
+  </si>
+  <si>
+    <t>hgfdgfh</t>
+  </si>
+  <si>
+    <t>dgfhdfghdfg</t>
+  </si>
+  <si>
+    <t>fdghfg</t>
+  </si>
+  <si>
+    <t>ghfghfhf</t>
+  </si>
+  <si>
+    <t>dfhdfgh</t>
+  </si>
+  <si>
+    <t>hdgfhtyhghf</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>gdfg</t>
+  </si>
+  <si>
+    <t>dfgdfgdfg</t>
+  </si>
+  <si>
+    <t>tgrdf</t>
+  </si>
+  <si>
+    <t>dfgdgf</t>
+  </si>
+  <si>
+    <t>regdfg</t>
+  </si>
+  <si>
+    <t>vgdf</t>
+  </si>
+  <si>
+    <t>dfgd</t>
+  </si>
+  <si>
+    <t>gregfdg</t>
   </si>
   <si>
     <t>dgfhdgf</t>
   </si>
   <si>
-    <t>hdgfhgfd</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>fghrtyhgfd</t>
-  </si>
-  <si>
-    <t>fgdhytrh</t>
-  </si>
-  <si>
-    <t>dghdgfhdfgf</t>
-  </si>
-  <si>
-    <t>dfgdf</t>
-  </si>
-  <si>
-    <t>gdfg</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>gdfgdf</t>
-  </si>
-  <si>
-    <t>gdf</t>
-  </si>
-  <si>
-    <t>dfgerdfgdgre</t>
-  </si>
-  <si>
-    <t>gdgregdf</t>
-  </si>
-  <si>
-    <t>regdfg</t>
-  </si>
-  <si>
-    <t>grgdfg</t>
-  </si>
-  <si>
-    <t>ergdf</t>
-  </si>
-  <si>
-    <t>gdgdf</t>
-  </si>
-  <si>
-    <t>gdfgdfg</t>
-  </si>
-  <si>
-    <t>fgh</t>
-  </si>
-  <si>
-    <t>dgfdgfh</t>
-  </si>
-  <si>
-    <t>gfdhdgfhdgfhgfd</t>
-  </si>
-  <si>
-    <t>fdghdgfh</t>
-  </si>
-  <si>
-    <t>gfh</t>
-  </si>
-  <si>
-    <t>dgfhdfgh</t>
+    <t>hfdghgfdh</t>
+  </si>
+  <si>
+    <t>hdfghgf</t>
+  </si>
+  <si>
+    <t>dhdgfh</t>
+  </si>
+  <si>
+    <t>fdhdfgh</t>
+  </si>
+  <si>
+    <t>fdghghf</t>
+  </si>
+  <si>
+    <t>ghfddhfg</t>
+  </si>
+  <si>
+    <t>fhfghd</t>
   </si>
 </sst>
 </file>
@@ -533,7 +542,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +550,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,285 +584,298 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>45826</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>78655</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>524</v>
+      </c>
+      <c r="I2">
+        <v>78546952</v>
+      </c>
+      <c r="J2">
+        <v>4582</v>
+      </c>
+      <c r="K2">
+        <v>5544668</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
-        <v>78458</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>458</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>458</v>
-      </c>
-      <c r="H2">
-        <v>2548</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>85965</v>
-      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>4587</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>4587</v>
-      </c>
-      <c r="H3">
-        <v>5254</v>
-      </c>
-      <c r="I3">
-        <v>542</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
+      <c r="M3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
